--- a/survival_results/data/for_prism-survival_data.xlsx
+++ b/survival_results/data/for_prism-survival_data.xlsx
@@ -616,10 +616,10 @@
         <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>376</v>
+        <v>909</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -707,7 +707,7 @@
         <v>23</v>
       </c>
       <c r="B20" t="n">
-        <v>370</v>
+        <v>492</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>25</v>
       </c>
       <c r="B22" t="n">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -798,7 +798,7 @@
         <v>30</v>
       </c>
       <c r="B27" t="n">
-        <v>231</v>
+        <v>348</v>
       </c>
       <c r="C27"/>
       <c r="D27" t="n">
@@ -824,7 +824,7 @@
         <v>32</v>
       </c>
       <c r="B29" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -837,7 +837,7 @@
         <v>33</v>
       </c>
       <c r="B30" t="n">
-        <v>230</v>
+        <v>344</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -850,7 +850,7 @@
         <v>34</v>
       </c>
       <c r="B31" t="n">
-        <v>211</v>
+        <v>278</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -863,7 +863,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="n">
-        <v>189</v>
+        <v>292</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
